--- a/datas/tb_datas.xlsx
+++ b/datas/tb_datas.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Universities" sheetId="1" r:id="rId1"/>
+    <sheet name="UserSets" sheetId="2" r:id="rId1"/>
+    <sheet name="CourseSets" sheetId="3" r:id="rId2"/>
+    <sheet name="TeacherCourseSets" sheetId="4" r:id="rId3"/>
+    <sheet name="TeacherSets" sheetId="5" r:id="rId4"/>
+    <sheet name="BookSets" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,41 +24,639 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>北京大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清华大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华中科技大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉科技大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉理工大学</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+  <si>
+    <t>349911680@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘志斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18610600113@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_tx@outlook.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff.W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compute_cs.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">计算机网络是计算机专业学生必修的一门专业基础课和核心课程，它是后续课程《计算机系统安全》、《网络管理技术》、《TCP/IP与网络互联》等理论课程，以及《网络课程设计》等实践教学环节的先行课。《计算机网络》课程的教学，旨在使学生掌握计算机网络的体系结构和流行的参考模型，掌握物理层标准的基本原理和数据通信技术，掌握数据链路层协议的工作原理和常见实例，掌握局域网基本原理和组网方法，掌握广域网基本原理和接入方法，掌握网络互连的基本知识和IP协议的运行机制，掌握传输层协议的工作原理和TCP、UDP协议的运行原理，掌握应用层常见协议和网络服务的工作原理，以及应用系统构架方法，了解计算机网络技术发展的前沿技术，为培养学生在计算机网络系统的规划与构建，网络应用系统的建立与开发等方面能力打下坚实的基础。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wust_cs_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wust_cs_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统课程主要介绍操作系统的设计方法和实现技术，讲授众多操作系统的设计精髓及操作系统最新技术。包括操作系统各组成部分的概述，互斥性和同步性，处理器实现，调度算法，存储管理，设备管理和文件系统。</t>
+  </si>
+  <si>
+    <t>os_concepts.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wust_cs_0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构是计算机科学的一门非常重要的专业基础课，内容丰富，涉及面广，我校计算机专业的本科主干基础课程，也是非计算机类本科生和研究生学习计算机的选修课。</t>
+  </si>
+  <si>
+    <t>data_struct.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wust_cs_0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math_cs.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离散数学是研究离散量的结构及其相互关系的数学学科，是现代数学的重要组成部分。它在各学科领域，特别在计算机科学与技术领域有着广泛的应用，同时离散数学也是计算机专业的许多专业课程，如程序设计语言、数据结构、操作系统、编译技术、人工智能、数据库、算法设计与分析、理论计算机科学基础等必不可少的先行课程。通过离散数学的学习，不但可以掌握处理离散结构的描述工具和方法，为后续课程的学习创造条件，而且可以提高抽象思维和严格的逻辑推理能力，为将来参与创新性的研究和开发工作打下坚实的基础。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wust_cs_0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本课程是基础阶段进行基本功训练的主要平台，英语专业一年级必修课程。总体目标是大力盘活中学所学内容，为学生打好语言基础，提高学生的语音、语调和朗读技巧，消化并提升中学所学的词汇和语法知识，优化学习方法，增加文化积累，拓展逻辑思维能力，积极介绍各种新的语言现象，为完成下学期的任务打下基础。本课程的中心任务是提升阅读能力，包括三个方面：主题理解能力、语言赏析能力和实际应用能力。通过训练，学生无论从语言到内容上都能够准确抓住文章中心思想，能够学会品味文章的思想美、结构美、修辞美和逻辑美，借以提升和拓展批判性思维能力。</t>
+  </si>
+  <si>
+    <t>english.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tean@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steav@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要从事：现场总线控制系统、多传感器数据融合、嵌入式技术、普适计算、（丰满）水力发电机组计算机仿真系统、肺癌早期筛查&amp;计算机辅助诊断、网络科学&amp;互联网生命特征、网络空间地图、无线传感器网络、物联网&amp;体域网等交叉学科的教学、科研、人才培养与团队建设工作。到目前为止，已培养博士60名(获得学位)，其中一篇博士论文获2012年辽宁省优秀博士论文，获2013年国家教育部百篇优秀博士论文提名；已培养硕士200名(获得学位)。长期以来与加拿大滑铁卢大学(University of Waterloo)、英国杜伦大学(University of Durham)、美国卡内基梅隆大学(Carnegie Mellon University)、加州大学圣地亚哥分校（University of California, San Diego）、普渡大学(Purdue University)、荷兰阿姆斯特丹大学(University of Amsterdam)和代尔夫特理工大学(Delft University of Technology)、澳大利亚悉尼科技大学(University of Technology, Sydney)等多所国际知名院校保持科研及联合培养学生的合作关系，已经送出和联合培养硕士、博士、博士后15名。多年来培养的学生遍及著名IT行业企业、研究所、高校及军队等部门，从事相关领域设计、研发、教学、科研、管理及领导工作，其中，部分学生已在美国、加拿大、澳大利亚IT企业任职。</t>
+  </si>
+  <si>
+    <t>主持完成国家社科基金课题1项，主持完成省级及校级课题3项，参与完成国家社科基金课题1项、省级课题5项。现主持在研国家社科基金课题1项、国家社科重大招标课题子课题1项、教育部“留学回国人员科研启动基金”课题1项，主持在研江西省社科规划课题1项、江西省哲学社会科学重点研究基地课题暨江西省社科规划课题1项、江西省高校人文社科课题1项。参与在研国家社科基金课题1项、江西省社科规划课题1项。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要从事：现场总线控制系统、多传感器数据融合、嵌入式技术、普适计算、（丰满）水力发电机组计算机仿真系统、肺癌早期筛查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机辅助诊断、网络科学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>互联网生命特征、网络空间地图、无线传感器网络、物联网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体域网等交叉学科的教学、科研、人才培养与团队建设工作。到目前为止，已培养博士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得学位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，其中一篇博士论文获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年辽宁省优秀博士论文，获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年国家教育部百篇优秀博士论文提名；已培养硕士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得学位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。长期以来与加拿大滑铁卢大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(University of Waterloo)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、英国杜伦大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(University of Durham)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、美国卡内基梅隆大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Carnegie Mellon University)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、加州大学圣地亚哥分校（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>University of California, San Diego</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、普渡大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Purdue University)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、荷兰阿姆斯特丹大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(University of Amsterdam)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和代尔夫特理工大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Delft University of Technology)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、澳大利亚悉尼科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(University of Technology, Sydney)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等多所国际知名院校保持科研及联合培养学生的合作关系，已经送出和联合培养硕士、博士、博士后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名。多年来培养的学生遍及著名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业企业、研究所、高校及军队等部门，从事相关领域设计、研发、教学、科研、管理及领导工作，其中，部分学生已在美国、加拿大、澳大利亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业任职。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +670,47 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,14 +730,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,7 +1023,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>123456</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>18520143443</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10086</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>18610300113</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>13655238564</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>15997411165</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>18597411145</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -379,47 +1269,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5">
+        <v>41998</v>
+      </c>
+      <c r="D1">
+        <v>15965488521</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
+        <v>40605</v>
+      </c>
+      <c r="D2">
+        <v>15999856431</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5">
+        <v>38238</v>
+      </c>
+      <c r="D3">
+        <v>15671566642</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5">
+        <v>36137</v>
+      </c>
+      <c r="D4">
+        <v>15666215324</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>